--- a/src/utils/del/process_df.xlsx
+++ b/src/utils/del/process_df.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H298"/>
+  <dimension ref="A1:H299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -510,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -533,12 +533,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -561,12 +565,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -591,14 +599,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>swiggy</t>
+          <t>toecm</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -621,12 +629,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -649,12 +661,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -677,12 +693,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -705,12 +725,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -733,12 +757,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -761,12 +789,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -789,12 +821,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -817,12 +853,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -845,12 +885,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -873,12 +917,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -901,12 +949,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -929,12 +981,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -957,12 +1013,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -985,12 +1045,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -1013,12 +1077,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -1041,12 +1109,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -1069,12 +1141,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -1097,12 +1173,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -1125,12 +1205,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -1153,12 +1237,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -1181,12 +1269,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -1209,12 +1301,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -1246,7 +1342,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -1269,12 +1365,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -1297,12 +1397,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -1325,12 +1429,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -1353,12 +1461,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -1381,12 +1493,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -1418,7 +1534,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -1441,12 +1557,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
@@ -1478,7 +1598,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
@@ -1510,7 +1630,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
@@ -1542,7 +1662,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
@@ -1565,12 +1685,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
@@ -1593,12 +1717,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
@@ -1621,12 +1749,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -1649,12 +1781,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -1677,12 +1813,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -1705,12 +1845,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -1742,7 +1886,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
@@ -1774,7 +1918,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
@@ -1806,7 +1950,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
@@ -1838,7 +1982,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
@@ -1870,7 +2014,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
@@ -1902,7 +2046,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
@@ -1925,12 +2069,16 @@
           <t>Departmental Stores</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
@@ -1962,7 +2110,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
@@ -1994,7 +2142,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
@@ -2026,7 +2174,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
@@ -2058,7 +2206,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
@@ -2090,7 +2238,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
@@ -2113,12 +2261,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
@@ -2150,7 +2302,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
@@ -2173,12 +2325,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
@@ -2210,7 +2366,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
@@ -2242,7 +2398,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
@@ -2274,7 +2430,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
@@ -2306,7 +2462,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
@@ -2338,7 +2494,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
@@ -2370,7 +2526,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
@@ -2393,12 +2549,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
@@ -2430,7 +2590,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
@@ -2462,7 +2622,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
@@ -2494,7 +2654,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
@@ -2517,12 +2677,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
@@ -2554,7 +2718,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
@@ -2577,12 +2741,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
@@ -2610,7 +2778,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
@@ -2642,7 +2810,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
@@ -2674,7 +2842,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
@@ -2706,7 +2874,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
@@ -2738,7 +2906,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
@@ -2770,7 +2938,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
@@ -2802,7 +2970,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
@@ -2834,7 +3002,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
@@ -2866,7 +3034,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
@@ -2898,7 +3066,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
@@ -2921,12 +3089,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
@@ -2958,7 +3130,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
@@ -2990,7 +3162,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B86" s="2" t="n">
@@ -3022,7 +3194,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B87" s="2" t="n">
@@ -3054,7 +3226,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B88" s="2" t="n">
@@ -3086,7 +3258,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B89" s="2" t="n">
@@ -3109,12 +3281,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B90" s="2" t="n">
@@ -3146,7 +3322,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
@@ -3178,7 +3354,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B92" s="2" t="n">
@@ -3210,7 +3386,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B93" s="2" t="n">
@@ -3242,7 +3418,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B94" s="2" t="n">
@@ -3267,14 +3443,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>youarepayi</t>
+          <t>upiout</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B95" s="2" t="n">
@@ -3306,7 +3482,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B96" s="2" t="n">
@@ -3338,7 +3514,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B97" s="2" t="n">
@@ -3370,7 +3546,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B98" s="2" t="n">
@@ -3402,7 +3578,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B99" s="2" t="n">
@@ -3434,7 +3610,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B100" s="2" t="n">
@@ -3466,7 +3642,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B101" s="2" t="n">
@@ -3498,7 +3674,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B102" s="2" t="n">
@@ -3530,7 +3706,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B103" s="2" t="n">
@@ -3562,7 +3738,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B104" s="2" t="n">
@@ -3594,7 +3770,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B105" s="2" t="n">
@@ -3617,12 +3793,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B106" s="2" t="n">
@@ -3654,7 +3834,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B107" s="2" t="n">
@@ -3686,7 +3866,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B108" s="2" t="n">
@@ -3718,7 +3898,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B109" s="2" t="n">
@@ -3750,7 +3930,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B110" s="2" t="n">
@@ -3782,7 +3962,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B111" s="2" t="n">
@@ -3814,7 +3994,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B112" s="2" t="n">
@@ -3846,7 +4026,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B113" s="2" t="n">
@@ -3878,7 +4058,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B114" s="2" t="n">
@@ -3910,7 +4090,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B115" s="2" t="n">
@@ -3933,12 +4113,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B116" s="2" t="n">
@@ -3970,7 +4154,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B117" s="2" t="n">
@@ -3993,12 +4177,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B118" s="2" t="n">
@@ -4021,12 +4209,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B119" s="2" t="n">
@@ -4058,7 +4250,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B120" s="2" t="n">
@@ -4081,12 +4273,16 @@
           <t>Departmental Stores</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B121" s="2" t="n">
@@ -4118,7 +4314,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B122" s="2" t="n">
@@ -4141,12 +4337,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B123" s="2" t="n">
@@ -4178,7 +4378,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B124" s="2" t="n">
@@ -4210,7 +4410,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B125" s="2" t="n">
@@ -4242,7 +4442,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B126" s="2" t="n">
@@ -4274,7 +4474,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B127" s="2" t="n">
@@ -4306,7 +4506,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B128" s="2" t="n">
@@ -4338,7 +4538,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B129" s="2" t="n">
@@ -4370,7 +4570,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B130" s="2" t="n">
@@ -4402,7 +4602,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B131" s="2" t="n">
@@ -4434,7 +4634,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B132" s="2" t="n">
@@ -4466,7 +4666,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B133" s="2" t="n">
@@ -4489,12 +4689,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B134" s="2" t="n">
@@ -4517,12 +4721,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B135" s="2" t="n">
@@ -4545,12 +4753,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B136" s="2" t="n">
@@ -4573,12 +4785,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B137" s="2" t="n">
@@ -4601,12 +4817,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B138" s="2" t="n">
@@ -4629,12 +4849,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B139" s="2" t="n">
@@ -4657,12 +4881,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B140" s="2" t="n">
@@ -4685,12 +4913,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B141" s="2" t="n">
@@ -4713,12 +4945,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B142" s="2" t="n">
@@ -4741,12 +4977,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B143" s="2" t="n">
@@ -4769,12 +5009,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B144" s="2" t="n">
@@ -4797,12 +5041,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B145" s="2" t="n">
@@ -4825,12 +5073,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B146" s="2" t="n">
@@ -4853,12 +5105,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B147" s="2" t="n">
@@ -4890,7 +5146,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B148" s="2" t="n">
@@ -4922,7 +5178,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B149" s="2" t="n">
@@ -4954,7 +5210,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B150" s="2" t="n">
@@ -4977,12 +5233,16 @@
           <t>Departmental Stores</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B151" s="2" t="n">
@@ -5010,7 +5270,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B152" s="2" t="n">
@@ -5042,7 +5302,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B153" s="2" t="n">
@@ -5065,12 +5325,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B154" s="2" t="n">
@@ -5093,12 +5357,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B155" s="2" t="n">
@@ -5130,7 +5398,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B156" s="2" t="n">
@@ -5162,7 +5430,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B157" s="2" t="n">
@@ -5194,7 +5462,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B158" s="2" t="n">
@@ -5219,14 +5487,14 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>upiout</t>
+          <t>mdmastofa</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B159" s="2" t="n">
@@ -5258,7 +5526,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B160" s="2" t="n">
@@ -5290,7 +5558,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B161" s="2" t="n">
@@ -5322,7 +5590,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B162" s="2" t="n">
@@ -5345,12 +5613,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr"/>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B163" s="2" t="n">
@@ -5373,12 +5645,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B164" s="2" t="n">
@@ -5410,7 +5686,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B165" s="2" t="n">
@@ -5438,7 +5714,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B166" s="2" t="n">
@@ -5466,7 +5742,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B167" s="2" t="n">
@@ -5489,12 +5765,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B168" s="2" t="n">
@@ -5526,7 +5806,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B169" s="2" t="n">
@@ -5549,12 +5829,16 @@
           <t>Departmental Stores</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B170" s="2" t="n">
@@ -5577,12 +5861,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B171" s="2" t="n">
@@ -5614,7 +5902,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B172" s="2" t="n">
@@ -5646,7 +5934,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B173" s="2" t="n">
@@ -5669,12 +5957,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B174" s="2" t="n">
@@ -5699,14 +5991,14 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>upiout</t>
+          <t>poojanmanishvig</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B175" s="2" t="n">
@@ -5738,7 +6030,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B176" s="2" t="n">
@@ -5770,7 +6062,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B177" s="2" t="n">
@@ -5802,7 +6094,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B178" s="2" t="n">
@@ -5834,7 +6126,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B179" s="2" t="n">
@@ -5857,12 +6149,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B180" s="2" t="n">
@@ -5885,12 +6181,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B181" s="2" t="n">
@@ -5922,7 +6222,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B182" s="2" t="n">
@@ -5954,7 +6254,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B183" s="2" t="n">
@@ -5986,7 +6286,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B184" s="2" t="n">
@@ -6018,7 +6318,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B185" s="2" t="n">
@@ -6050,7 +6350,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B186" s="2" t="n">
@@ -6082,7 +6382,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B187" s="2" t="n">
@@ -6114,7 +6414,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B188" s="2" t="n">
@@ -6146,7 +6446,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B189" s="2" t="n">
@@ -6178,7 +6478,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B190" s="2" t="n">
@@ -6210,7 +6510,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B191" s="2" t="n">
@@ -6242,7 +6542,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B192" s="2" t="n">
@@ -6265,12 +6565,16 @@
           <t>Travelling Expense</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B193" s="2" t="n">
@@ -6302,7 +6606,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B194" s="2" t="n">
@@ -6334,7 +6638,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B195" s="2" t="n">
@@ -6366,7 +6670,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B196" s="2" t="n">
@@ -6398,7 +6702,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B197" s="2" t="n">
@@ -6421,12 +6725,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B198" s="2" t="n">
@@ -6449,12 +6757,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B199" s="2" t="n">
@@ -6486,7 +6798,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B200" s="2" t="n">
@@ -6509,12 +6821,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B201" s="2" t="n">
@@ -6546,7 +6862,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B202" s="2" t="n">
@@ -6566,15 +6882,19 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Suspense</t>
-        </is>
-      </c>
-      <c r="H202" t="inlineStr"/>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>toecm</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B203" s="2" t="n">
@@ -6606,7 +6926,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B204" s="2" t="n">
@@ -6629,12 +6949,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B205" s="2" t="n">
@@ -6666,7 +6990,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B206" s="2" t="n">
@@ -6698,7 +7022,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B207" s="2" t="n">
@@ -6730,7 +7054,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B208" s="2" t="n">
@@ -6762,7 +7086,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B209" s="2" t="n">
@@ -6794,7 +7118,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B210" s="2" t="n">
@@ -6826,7 +7150,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B211" s="2" t="n">
@@ -6849,12 +7173,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr"/>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B212" s="2" t="n">
@@ -6882,7 +7210,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B213" s="2" t="n">
@@ -6914,7 +7242,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B214" s="2" t="n">
@@ -6946,7 +7274,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B215" s="2" t="n">
@@ -6969,12 +7297,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr"/>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B216" s="2" t="n">
@@ -7006,7 +7338,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B217" s="2" t="n">
@@ -7029,12 +7361,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B218" s="2" t="n">
@@ -7066,7 +7402,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B219" s="2" t="n">
@@ -7098,7 +7434,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B220" s="2" t="n">
@@ -7121,12 +7457,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr"/>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B221" s="2" t="n">
@@ -7149,12 +7489,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B222" s="2" t="n">
@@ -7177,12 +7521,16 @@
           <t>Departmental Stores</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B223" s="2" t="n">
@@ -7214,7 +7562,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B224" s="2" t="n">
@@ -7246,7 +7594,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B225" s="2" t="n">
@@ -7278,7 +7626,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B226" s="2" t="n">
@@ -7310,7 +7658,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B227" s="2" t="n">
@@ -7333,12 +7681,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr"/>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B228" s="2" t="n">
@@ -7361,12 +7713,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B229" s="2" t="n">
@@ -7398,7 +7754,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B230" s="2" t="n">
@@ -7430,7 +7786,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B231" s="2" t="n">
@@ -7453,12 +7809,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B232" s="2" t="n">
@@ -7490,7 +7850,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B233" s="2" t="n">
@@ -7522,7 +7882,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B234" s="2" t="n">
@@ -7554,7 +7914,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B235" s="2" t="n">
@@ -7577,12 +7937,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr"/>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B236" s="2" t="n">
@@ -7605,12 +7969,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr"/>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B237" s="2" t="n">
@@ -7642,7 +8010,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B238" s="2" t="n">
@@ -7674,7 +8042,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B239" s="2" t="n">
@@ -7706,7 +8074,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B240" s="2" t="n">
@@ -7738,7 +8106,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B241" s="2" t="n">
@@ -7761,12 +8129,16 @@
           <t>Food Expense/Hotel</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr"/>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B242" s="2" t="n">
@@ -7798,7 +8170,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B243" s="2" t="n">
@@ -7830,7 +8202,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B244" s="2" t="n">
@@ -7862,7 +8234,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B245" s="2" t="n">
@@ -7894,7 +8266,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B246" s="2" t="n">
@@ -7926,7 +8298,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B247" s="2" t="n">
@@ -7958,7 +8330,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B248" s="2" t="n">
@@ -7990,7 +8362,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B249" s="2" t="n">
@@ -8022,7 +8394,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B250" s="2" t="n">
@@ -8045,12 +8417,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr"/>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B251" s="2" t="n">
@@ -8073,12 +8449,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr"/>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B252" s="2" t="n">
@@ -8101,12 +8481,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr"/>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B253" s="2" t="n">
@@ -8138,7 +8522,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B254" s="2" t="n">
@@ -8161,12 +8545,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr"/>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B255" s="2" t="n">
@@ -8189,12 +8577,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr"/>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B256" s="2" t="n">
@@ -8226,7 +8618,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B257" s="2" t="n">
@@ -8249,12 +8641,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr"/>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B258" s="2" t="n">
@@ -8286,7 +8682,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B259" s="2" t="n">
@@ -8309,12 +8705,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr"/>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B260" s="2" t="n">
@@ -8346,7 +8746,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B261" s="2" t="n">
@@ -8378,7 +8778,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B262" s="2" t="n">
@@ -8410,7 +8810,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B263" s="2" t="n">
@@ -8442,7 +8842,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B264" s="2" t="n">
@@ -8474,7 +8874,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B265" s="2" t="n">
@@ -8506,7 +8906,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B266" s="2" t="n">
@@ -8538,7 +8938,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B267" s="2" t="n">
@@ -8570,7 +8970,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B268" s="2" t="n">
@@ -8602,7 +9002,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B269" s="2" t="n">
@@ -8634,7 +9034,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B270" s="2" t="n">
@@ -8666,7 +9066,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B271" s="2" t="n">
@@ -8698,7 +9098,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B272" s="2" t="n">
@@ -8730,7 +9130,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B273" s="2" t="n">
@@ -8762,7 +9162,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B274" s="2" t="n">
@@ -8794,7 +9194,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B275" s="2" t="n">
@@ -8826,7 +9226,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B276" s="2" t="n">
@@ -8849,12 +9249,16 @@
           <t>Rent Received</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr"/>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B277" s="2" t="n">
@@ -8877,12 +9281,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr"/>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B278" s="2" t="n">
@@ -8910,7 +9318,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B279" s="2" t="n">
@@ -8933,12 +9341,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr"/>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B280" s="2" t="n">
@@ -8970,7 +9382,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B281" s="2" t="n">
@@ -8993,12 +9405,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr"/>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B282" s="2" t="n">
@@ -9021,12 +9437,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr"/>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B283" s="2" t="n">
@@ -9058,7 +9478,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B284" s="2" t="n">
@@ -9081,12 +9501,16 @@
           <t>UPI-Dr</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr"/>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>upiout</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B285" s="2" t="n">
@@ -9109,12 +9533,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr"/>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B286" s="2" t="n">
@@ -9146,7 +9574,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B287" s="2" t="n">
@@ -9169,12 +9597,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr"/>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B288" s="2" t="n">
@@ -9197,12 +9629,16 @@
           <t>Cash Withdrawal</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr"/>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B289" s="2" t="n">
@@ -9230,7 +9666,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B290" s="2" t="n">
@@ -9258,7 +9694,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B291" s="2" t="n">
@@ -9290,7 +9726,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B292" s="2" t="n">
@@ -9318,7 +9754,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B293" s="2" t="n">
@@ -9346,7 +9782,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B294" s="2" t="n">
@@ -9374,7 +9810,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B295" s="2" t="n">
@@ -9402,7 +9838,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B296" s="2" t="n">
@@ -9425,12 +9861,16 @@
           <t>UPI-Cr</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr"/>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B297" s="2" t="n">
@@ -9462,7 +9902,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>AJ</t>
+          <t>ecm</t>
         </is>
       </c>
       <c r="B298" s="2" t="n">
@@ -9486,6 +9926,36 @@
         </is>
       </c>
       <c r="H298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>ecm</t>
+        </is>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>closingbalance</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Closing Balance</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/utils/del/process_df.xlsx
+++ b/src/utils/del/process_df.xlsx
@@ -534,7 +534,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Suspense</t>
+          <t>suspense</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -565,7 +565,11 @@
           <t>922040061366717</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>922040061366717</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -625,7 +629,11 @@
           <t>payu.in</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>payu.in</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -650,7 +658,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Suspense</t>
+          <t>suspense</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -678,7 +686,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bank Interest Received</t>
+          <t>bank interest received</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -709,7 +717,11 @@
           <t>payu.in</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>payu.in</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -737,7 +749,11 @@
           <t>922040070298814</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>922040070298814</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -762,7 +778,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bank Interest Received</t>
+          <t>bank interest received</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -790,7 +806,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bank Interest Received</t>
+          <t>bank interest received</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -818,7 +834,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bank Interest Received</t>
+          <t>bank interest received</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>

--- a/src/utils/del/process_df.xlsx
+++ b/src/utils/del/process_df.xlsx
@@ -482,7 +482,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MITA BISWAS</t>
+          <t>ARKA BISWAS</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -514,7 +514,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MITA BISWAS</t>
+          <t>ARKA BISWAS</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -542,7 +542,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MITA BISWAS</t>
+          <t>ARKA BISWAS</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -574,7 +574,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MITA BISWAS</t>
+          <t>ARKA BISWAS</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -606,7 +606,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MITA BISWAS</t>
+          <t>ARKA BISWAS</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -638,7 +638,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MITA BISWAS</t>
+          <t>ARKA BISWAS</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -666,7 +666,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MITA BISWAS</t>
+          <t>ARKA BISWAS</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -694,7 +694,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MITA BISWAS</t>
+          <t>ARKA BISWAS</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -726,7 +726,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MITA BISWAS</t>
+          <t>ARKA BISWAS</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -758,7 +758,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MITA BISWAS</t>
+          <t>ARKA BISWAS</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -786,7 +786,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MITA BISWAS</t>
+          <t>ARKA BISWAS</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -814,7 +814,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MITA BISWAS</t>
+          <t>ARKA BISWAS</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
